--- a/Templates_eng/es_template.xlsx
+++ b/Templates_eng/es_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="(1-10) s" sheetId="1" r:id="rId1"/>
@@ -400,113 +400,113 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -860,7 +860,7 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:L40"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -875,219 +875,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="12" t="str">
-        <f>"ELECTRIC STOPWATCH"  &amp; CHAR(10) &amp; "CALIBRATION RECORD" &amp; CHAR(10) &amp; " # " &amp; Data!B8</f>
+      <c r="A1" s="42" t="str">
+        <f>"ELECTRIC STOPWATCH"  &amp; CHAR(10) &amp; " CALIBRATION RECORD" &amp; CHAR(10) &amp; " # " &amp; Data!B8</f>
         <v xml:space="preserve">ELECTRIC STOPWATCH
-CALIBRATION RECORD
+ CALIBRATION RECORD
  # </v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <f>Data!B9</f>
         <v>0</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44">
         <f>Data!B10</f>
         <v>0</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
         <f>Data!B11</f>
         <v>0</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="13.9" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="26">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36">
         <f>Data!B12</f>
         <v>0</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="13.9" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="32" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="18" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="38">
+      <c r="G11" s="17"/>
+      <c r="H11" s="30">
         <f>Data!B15</f>
         <v>0</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="18" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="41">
+      <c r="G12" s="17"/>
+      <c r="H12" s="33">
         <f>Data!B16</f>
         <v>0</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3"/>
@@ -1104,20 +1104,20 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3"/>
@@ -1134,54 +1134,54 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="3"/>
@@ -1198,20 +1198,20 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17">
@@ -1229,276 +1229,276 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>0.1</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="21">
         <f>Data!B4 - 0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>0.2</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="21">
         <f>Data!C4 - 0.2</f>
         <v>-0.2</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>0.3</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="21">
         <f>Data!D4 - 0.3</f>
         <v>-0.3</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>0.4</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="21">
         <f>Data!E4 - 0.4</f>
         <v>-0.4</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>0.5</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="21">
         <f>Data!F4 - 0.5</f>
         <v>-0.5</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>0.6</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="21">
         <f>Data!G4 - 0.6</f>
         <v>-0.6</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>0.7</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="21">
         <f>Data!H4 - 0.7</f>
         <v>-0.7</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>0.8</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="21">
         <f>Data!I4 - 0.8</f>
         <v>-0.8</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>0.9</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17">
         <f>Data!J4 - 0.9</f>
         <v>-0.9</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="24">
+      <c r="A32" s="16">
         <v>1</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="18" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17">
         <f>Data!K4 - 1</f>
         <v>-1</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="24">
+      <c r="A33" s="16">
         <v>5</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="18" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18">
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17">
         <f>Data!L4 - 5</f>
         <v>-5</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="24">
+      <c r="A34" s="16">
         <v>10</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="18" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17">
         <f>Data!M4 - 10</f>
         <v>-10</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35"/>
@@ -1515,23 +1515,23 @@
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22" t="str">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15" t="str">
         <f>IF(OR(ABS(H23)&gt;0.03,ABS(H24)&gt;0.03,ABS(H25)&gt;0.03,ABS(H26)&gt;0.03, ABS(H27)&gt;0.03, ABS(H28)&gt;0.03, ABS(H29)&gt;0.03, ABS(H30)&gt;0.03,ABS(H31)&gt;0.03, ABS(H32)&gt;0.03, ABS(H33)&gt;0.05,ABS(H34)&gt;0.05), "Fail","Pass")</f>
         <v>Fail</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37"/>
@@ -1548,55 +1548,100 @@
       <c r="L37"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="20" t="str">
+      <c r="A38" s="18" t="str">
         <f>"Calibration officer: "</f>
         <v xml:space="preserve">Calibration officer: </v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="47">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19">
         <f>Data!B14</f>
         <v>0</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="20" t="str">
+      <c r="A40" s="18" t="str">
         <f>"Calibration date: "</f>
         <v xml:space="preserve">Calibration date: </v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="42">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="20">
         <f>Data!B2</f>
         <v>0</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A7:E8"/>
+    <mergeCell ref="F7:L8"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H9:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:L30"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="D38:L38"/>
     <mergeCell ref="A40:C40"/>
@@ -1607,59 +1652,14 @@
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H9:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A7:E8"/>
-    <mergeCell ref="F7:L8"/>
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:L34"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="0.88611111111111096" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1671,7 +1671,7 @@
   <dimension ref="A1:BL39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -1686,212 +1686,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="12" t="str">
-        <f>"ELECTRIC STOPWATCH"  &amp; CHAR(10) &amp; "CALIBRATION RECORD" &amp; CHAR(10) &amp; " # " &amp; Data!B8</f>
+      <c r="A1" s="42" t="str">
+        <f>"ELECTRIC STOPWATCH"  &amp; CHAR(10) &amp; " CALIBRATION RECORD" &amp; CHAR(10) &amp; " # " &amp; Data!B8</f>
         <v xml:space="preserve">ELECTRIC STOPWATCH
-CALIBRATION RECORD
+ CALIBRATION RECORD
  # </v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <f>Data!B9</f>
         <v>0</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44">
         <f>Data!B10</f>
         <v>0</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
         <f>Data!B11</f>
         <v>0</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="13.9" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="26">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36">
         <f>Data!B12</f>
         <v>0</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="13.9" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="32" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="18" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="38">
+      <c r="G11" s="17"/>
+      <c r="H11" s="30">
         <f>Data!B15</f>
         <v>0</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="18" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="41">
+      <c r="G12" s="17"/>
+      <c r="H12" s="33">
         <f>Data!B16</f>
         <v>0</v>
       </c>
@@ -1915,20 +1915,20 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3"/>
@@ -1945,54 +1945,54 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="3"/>
@@ -2009,20 +2009,20 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17">
@@ -2040,213 +2040,213 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="21">
         <f>Data!B4 - 0.5</f>
         <v>-0.5</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="21">
         <f>Data!C4 - 0.7</f>
         <v>-0.7</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="21">
         <f>Data!D4 - 1.1</f>
         <v>-1.1000000000000001</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="21">
         <f>Data!E4 - 5</f>
         <v>-5</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="21">
         <f>Data!F4 - 30</f>
         <v>-30</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="21">
         <f>Data!G4 - 40</f>
         <v>-40</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="21">
         <f>Data!H4 - 60</f>
         <v>-60</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="21">
         <f>Data!I4 - 300</f>
         <v>-300</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17">
         <f>Data!J4 - 600</f>
         <v>-600</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="6"/>
@@ -2291,23 +2291,23 @@
       <c r="L34"/>
     </row>
     <row r="35" spans="1:64">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22" t="str">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="str">
         <f>IF(OR(ABS(H23)&gt;0.01,ABS(H24)&gt;0.01,ABS(H25)&gt;0.015,ABS(H26)&gt;0.015,ABS(H27)&gt;0.015,ABS(H28)&gt;0.015,ABS(H29)&gt;0.015,ABS(H30)&gt;0.015,ABS(H31)&gt;0.015), "Fail","Pass")</f>
         <v>Fail</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
     </row>
     <row r="36" spans="1:64">
       <c r="A36"/>
@@ -2324,24 +2324,24 @@
       <c r="L36"/>
     </row>
     <row r="37" spans="1:64">
-      <c r="A37" s="20" t="str">
+      <c r="A37" s="18" t="str">
         <f>"Calibration officer: "</f>
         <v xml:space="preserve">Calibration officer: </v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="47">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19">
         <f>Data!B14</f>
         <v>0</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
       <c r="BD37"/>
       <c r="BE37"/>
       <c r="BF37"/>
@@ -2353,32 +2353,74 @@
       <c r="BL37"/>
     </row>
     <row r="39" spans="1:64">
-      <c r="A39" s="20" t="str">
+      <c r="A39" s="18" t="str">
         <f>"Calibration date: "</f>
         <v xml:space="preserve">Calibration date: </v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="42">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="20">
         <f>Data!B2</f>
         <v>0</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A7:E8"/>
+    <mergeCell ref="F7:L8"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H9:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:L28"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:L37"/>
     <mergeCell ref="A39:C39"/>
@@ -2389,53 +2431,11 @@
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="H30:L30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H9:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A7:E8"/>
-    <mergeCell ref="F7:L8"/>
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:L35"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="0.88611111111111096" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2446,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:L39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -2462,219 +2462,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="12" t="str">
-        <f>"ELECTRIC STOPWATCH"  &amp; CHAR(10) &amp; "CALIBRATION RECORD" &amp; CHAR(10) &amp; " # " &amp; Data!B8</f>
+      <c r="A1" s="42" t="str">
+        <f>"ELECTRIC STOPWATCH"  &amp; CHAR(10) &amp; " CALIBRATION RECORD" &amp; CHAR(10) &amp; " # " &amp; Data!B8</f>
         <v xml:space="preserve">ELECTRIC STOPWATCH
-CALIBRATION RECORD
+ CALIBRATION RECORD
  # </v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <f>Data!B9</f>
         <v>0</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44">
         <f>Data!B10</f>
         <v>0</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
         <f>Data!B11</f>
         <v>0</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="13.9" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="26">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36">
         <f>Data!B12</f>
         <v>0</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="13.9" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="32" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="18" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="38">
+      <c r="G11" s="17"/>
+      <c r="H11" s="30">
         <f>Data!B15</f>
         <v>0</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="18" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="41">
+      <c r="G12" s="17"/>
+      <c r="H12" s="33">
         <f>Data!B16</f>
         <v>0</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3"/>
@@ -2691,20 +2691,20 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3"/>
@@ -2721,54 +2721,54 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="3"/>
@@ -2785,20 +2785,20 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17">
@@ -2816,171 +2816,171 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="21">
         <f>Data!B4 - 22</f>
         <v>-22</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="21">
         <f>Data!C4 - 30</f>
         <v>-30</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="21">
         <f>Data!D4 - 60</f>
         <v>-60</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="21">
         <f>Data!E4 - 300</f>
         <v>-300</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="21">
         <f>Data!F4 - 600</f>
         <v>-600</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="21">
         <f>Data!G4 - 900</f>
         <v>-900</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="21">
         <f>Data!H4 - 1200</f>
         <v>-1200</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="6"/>
@@ -3053,23 +3053,23 @@
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22" t="str">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="str">
         <f>IF(OR(ABS(H23)&gt;0.1,ABS(H24)&gt;0.1,ABS(H25)&gt;0.1,ABS(H26)&gt;0.1,ABS(H27)&gt;0.1,ABS(H28)&gt;0.1,ABS(H29)&gt;0.1), "Fail","Pass")</f>
         <v>Fail</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36"/>
@@ -3086,52 +3086,88 @@
       <c r="L36"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="20" t="str">
+      <c r="A37" s="18" t="str">
         <f>"Calibration officer: "</f>
         <v xml:space="preserve">Calibration officer: </v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="47">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19">
         <f>Data!B14</f>
         <v>0</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="20" t="str">
+      <c r="A39" s="18" t="str">
         <f>"Calibration date: "</f>
         <v xml:space="preserve">Calibration date: </v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="42">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="20">
         <f>Data!B2</f>
         <v>0</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A7:E8"/>
+    <mergeCell ref="F7:L8"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H9:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:L26"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:L37"/>
     <mergeCell ref="A39:C39"/>
@@ -3142,47 +3178,11 @@
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="H28:L28"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H9:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A7:E8"/>
-    <mergeCell ref="F7:L8"/>
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:L35"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="0.88611111111111096" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3193,7 +3193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -3274,75 +3274,75 @@
       <c r="BK1" s="8"/>
       <c r="BL1" s="8"/>
     </row>
-    <row r="2" spans="1:64" s="44" customFormat="1">
+    <row r="2" spans="1:64" s="13" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1">
       <c r="A3" s="7" t="s">
@@ -3584,618 +3584,618 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
